--- a/data_year/zb/财政/外债情况.xlsx
+++ b/data_year/zb/财政/外债情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,728 +488,418 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>947.7</v>
+        <v>2701.08</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5</v>
+        <v>355.46</v>
       </c>
       <c r="D2" t="n">
-        <v>246.1</v>
+        <v>320.84</v>
       </c>
       <c r="E2" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>3757</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2112</v>
+      </c>
       <c r="G2" t="n">
-        <v>1326.5</v>
+        <v>1732.4</v>
       </c>
       <c r="H2" t="n">
-        <v>52.1</v>
+        <v>29.2</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>12.0304151272</v>
+        <v>9.0181250332</v>
       </c>
       <c r="K2" t="n">
-        <v>1457.3</v>
+        <v>5489.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>972.3</v>
+        <v>3774.97</v>
       </c>
       <c r="C3" t="n">
-        <v>275.7</v>
+        <v>350</v>
       </c>
       <c r="D3" t="n">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="E3" t="n">
-        <v>837.7</v>
+        <v>5009</v>
       </c>
       <c r="F3" t="n">
-        <v>216.1</v>
+        <v>2492</v>
       </c>
       <c r="G3" t="n">
-        <v>1195.3</v>
+        <v>1941</v>
       </c>
       <c r="H3" t="n">
-        <v>67.90000000000001</v>
+        <v>33.3</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>15.1783063977</v>
+        <v>9.2033265552</v>
       </c>
       <c r="K3" t="n">
-        <v>2033</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>929.1</v>
+        <v>3803.43</v>
       </c>
       <c r="C4" t="n">
-        <v>277.02</v>
+        <v>340.98</v>
       </c>
       <c r="D4" t="n">
-        <v>244.23</v>
+        <v>310.45</v>
       </c>
       <c r="E4" t="n">
-        <v>870.8</v>
+        <v>5409.3</v>
       </c>
       <c r="F4" t="n">
-        <v>263.23</v>
+        <v>2915</v>
       </c>
       <c r="G4" t="n">
-        <v>1155.5</v>
+        <v>1960.6</v>
       </c>
       <c r="H4" t="n">
-        <v>55.5</v>
+        <v>32.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>13.7790344437</v>
+        <v>8.637854498899999</v>
       </c>
       <c r="K4" t="n">
-        <v>2026.3</v>
+        <v>7369.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1051.73</v>
+        <v>4668.71915</v>
       </c>
       <c r="C5" t="n">
-        <v>264.67</v>
+        <v>332.79616</v>
       </c>
       <c r="D5" t="n">
-        <v>254.2</v>
+        <v>265.15127</v>
       </c>
       <c r="E5" t="n">
-        <v>1027.7</v>
+        <v>6766.3</v>
       </c>
       <c r="F5" t="n">
-        <v>365.74</v>
+        <v>3365</v>
       </c>
       <c r="G5" t="n">
-        <v>1165.9</v>
+        <v>1865.4</v>
       </c>
       <c r="H5" t="n">
-        <v>45.2</v>
+        <v>35.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>13.2121692305</v>
+        <v>9.018866688499999</v>
       </c>
       <c r="K5" t="n">
-        <v>2193.6</v>
+        <v>8631.700000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1247.83</v>
+        <v>4957</v>
       </c>
       <c r="C6" t="n">
-        <v>251.01</v>
+        <v>421.4</v>
       </c>
       <c r="D6" t="n">
-        <v>322.08</v>
+        <v>232.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1387.1</v>
+        <v>12982</v>
       </c>
       <c r="F6" t="n">
-        <v>809</v>
+        <v>3344</v>
       </c>
       <c r="G6" t="n">
-        <v>1242.9</v>
+        <v>4817</v>
       </c>
       <c r="H6" t="n">
-        <v>40.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>13.4497833789</v>
+        <v>16.9880342723</v>
       </c>
       <c r="K6" t="n">
-        <v>2629.9</v>
+        <v>17799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1362.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>272</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1716.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1063</v>
-      </c>
+        <v>8874.079290903241</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1249</v>
+        <v>4955.71899958327</v>
       </c>
       <c r="H7" t="n">
-        <v>35.4</v>
+        <v>58.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>12.972038956</v>
+        <v>12.5020149315</v>
       </c>
       <c r="K7" t="n">
-        <v>2965.4</v>
+        <v>13829.7982904865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1635.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>278.11</v>
-      </c>
-      <c r="D8" t="n">
-        <v>276.67</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1992.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1196</v>
-      </c>
+        <v>8660.4</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>1393.6</v>
+        <v>5497.59677944267</v>
       </c>
       <c r="H8" t="n">
-        <v>31.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="J8" t="n">
-        <v>12.302906819</v>
+        <v>12.5994508003</v>
       </c>
       <c r="K8" t="n">
-        <v>3385.88</v>
+        <v>14158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1820.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>283.71</v>
-      </c>
-      <c r="D9" t="n">
-        <v>300.57</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>2356.84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1487</v>
-      </c>
+        <v>11452.4</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>1535.34</v>
+        <v>6127.2</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>10.9622534511</v>
+        <v>14.26548341</v>
       </c>
       <c r="K9" t="n">
-        <v>3892.18</v>
+        <v>17579.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2010.34</v>
-      </c>
-      <c r="C10" t="n">
-        <v>270.54</v>
-      </c>
-      <c r="D10" t="n">
-        <v>324.73</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>2262.8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1296</v>
-      </c>
+        <v>12891.5</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>1638.8</v>
+        <v>6936</v>
       </c>
       <c r="H10" t="n">
-        <v>24.7</v>
+        <v>74.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>8.491393996999999</v>
+        <v>14.2727288204</v>
       </c>
       <c r="K10" t="n">
-        <v>3901.6</v>
+        <v>19827.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1986.49</v>
-      </c>
-      <c r="C11" t="n">
-        <v>333.75</v>
-      </c>
-      <c r="D11" t="n">
-        <v>349.23</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>2592.6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1617</v>
-      </c>
+        <v>12188.4</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>1693.9</v>
+        <v>8519.68</v>
       </c>
       <c r="H11" t="n">
-        <v>32.2</v>
+        <v>78.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="J11" t="n">
-        <v>8.4016052843</v>
+        <v>14.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4286.5</v>
+        <v>20708.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2701.08</v>
-      </c>
-      <c r="C12" t="n">
-        <v>355.46</v>
-      </c>
-      <c r="D12" t="n">
-        <v>320.84</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>3757</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2112</v>
-      </c>
+        <v>13163.7</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>1732.4</v>
+        <v>10844.4</v>
       </c>
       <c r="H12" t="n">
-        <v>29.2</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>9.0181250332</v>
+        <v>16.3</v>
       </c>
       <c r="K12" t="n">
-        <v>5489.4</v>
+        <v>24008.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3774.97</v>
-      </c>
-      <c r="C13" t="n">
-        <v>350</v>
-      </c>
-      <c r="D13" t="n">
-        <v>333</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>5009</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2492</v>
-      </c>
+        <v>14462.3</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>1941</v>
+        <v>13003.3</v>
       </c>
       <c r="H13" t="n">
-        <v>33.3</v>
+        <v>77.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
-        <v>9.2033265552</v>
+        <v>15.5</v>
       </c>
       <c r="K13" t="n">
-        <v>6950</v>
+        <v>27465.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3803.43</v>
-      </c>
-      <c r="C14" t="n">
-        <v>340.98</v>
-      </c>
-      <c r="D14" t="n">
-        <v>310.45</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5409.3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2915</v>
-      </c>
+        <v>13379.7</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>1960.6</v>
+        <v>11148</v>
       </c>
       <c r="H14" t="n">
-        <v>32.8</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>8.637854498899999</v>
+        <v>13.6</v>
       </c>
       <c r="K14" t="n">
-        <v>7369.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4668.71915</v>
-      </c>
-      <c r="C15" t="n">
-        <v>332.79616</v>
-      </c>
-      <c r="D15" t="n">
-        <v>265.15127</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6766.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3365</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1865.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.018866688499999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8631.700000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4957</v>
-      </c>
-      <c r="C16" t="n">
-        <v>421.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>232.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12982</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3344</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4817</v>
-      </c>
-      <c r="H16" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16.9880342723</v>
-      </c>
-      <c r="K16" t="n">
-        <v>17799</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>8874.079290903241</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>4955.71899958327</v>
-      </c>
-      <c r="H17" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12.5020149315</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13829.7982904865</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>8660.4</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>5497.59677944267</v>
-      </c>
-      <c r="H18" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>12.5994508003</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14158</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>11452.4</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>6127.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>14.26548341</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17579.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>12891.5</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>6936</v>
-      </c>
-      <c r="H20" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>14.2727288204</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19827.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>12188.4</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>8519.68</v>
-      </c>
-      <c r="H21" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20708.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>13163.7</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>10844.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>24008.1</v>
+        <v>24527.6</v>
       </c>
     </row>
   </sheetData>
